--- a/public/import/WEEKLY BAMBANG.xlsx
+++ b/public/import/WEEKLY BAMBANG.xlsx
@@ -62,7 +62,7 @@
     <t xml:space="preserve">TARGET PENGIRIMAN TERKIRIM SEMUA ORDERAN HARI ITU ,PER HARI TARGET 12 PENGIRIMAN </t>
   </si>
   <si>
-    <t>38</t>
+    <t>39</t>
   </si>
 </sst>
 </file>
